--- a/medicine/Enfance/Un_livre_qui_bouge/Un_livre_qui_bouge.xlsx
+++ b/medicine/Enfance/Un_livre_qui_bouge/Un_livre_qui_bouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un livre qui bouge était dans les années 1980 une collection de livres éducatifs pour enfants de l'éditeur Fernand Nathan (devenu Nathan depuis 2000). Cette collection met en scène deux personnages, Bizouquet et Ratounet. Bizouquet a l'apparence d'un clown et Ratounet celle d'un raton-laveur. Chaque double-page possède un mécanisme réalisé entièrement en papier qui bouge les personnages ou les objets. Les textes sont de Peter Seymour, les dessins de Chuck Murphy et les mécanismes de Tor Lokvig.
 </t>
@@ -511,7 +523,9 @@
           <t>Albums</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Jouons avec des animaux
 Jouons avec des bruits
